--- a/Selenium_Java_Framework/excelfiles/TestData.xlsx
+++ b/Selenium_Java_Framework/excelfiles/TestData.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{39CD6AA0-2B1C-4CCC-B8AF-C53BD0438C36}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anki\git\TestRepo\Selenium_Java_Framework\excelfiles\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AC2BFE0-ABAC-46C9-969F-6FBC36B2B593}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="20760" windowHeight="11820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="RegData" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>Username</t>
   </si>
@@ -42,16 +47,80 @@
   </si>
   <si>
     <t>Admin2</t>
+  </si>
+  <si>
+    <t>firstName</t>
+  </si>
+  <si>
+    <t>surname</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>Nitin</t>
+  </si>
+  <si>
+    <t>Patil</t>
+  </si>
+  <si>
+    <t>nai@mail.com</t>
+  </si>
+  <si>
+    <t>nitin123</t>
+  </si>
+  <si>
+    <t>Peter</t>
+  </si>
+  <si>
+    <t>Parkar</t>
+  </si>
+  <si>
+    <t>peter@mail.com</t>
+  </si>
+  <si>
+    <t>peter123</t>
+  </si>
+  <si>
+    <t>Shreyash</t>
+  </si>
+  <si>
+    <t>Saraf</t>
+  </si>
+  <si>
+    <t>shreysh@mail.com</t>
+  </si>
+  <si>
+    <t>shreyash123</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -74,13 +143,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -361,7 +434,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -402,4 +475,87 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D8F58CF-E6A3-4E2D-805A-0ADA67F732FD}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+    <col min="3" max="3" width="28.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{84FA8A98-58FB-4105-B708-754ACB3A082D}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{3A52F514-79E3-4507-B46B-DCCF4E2B856B}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{3FE2D1F4-F8CB-4166-96E2-FA6BAE8B7CE7}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
+</worksheet>
 </file>
--- a/Selenium_Java_Framework/excelfiles/TestData.xlsx
+++ b/Selenium_Java_Framework/excelfiles/TestData.xlsx
@@ -3,22 +3,23 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anki\git\TestRepo\Selenium_Java_Framework\excelfiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AC2BFE0-ABAC-46C9-969F-6FBC36B2B593}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D097344-A2DE-4F0B-9C4D-7C53FCA6FF6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="RegData" sheetId="2" r:id="rId2"/>
+    <sheet name="LoginData" r:id="rId6" sheetId="3"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
   <si>
     <t>Username</t>
   </si>
@@ -95,12 +96,25 @@
   </si>
   <si>
     <t>shreyash123</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>Admin123</t>
+  </si>
+  <si>
+    <t>admin11</t>
+  </si>
+  <si>
+    <t>status</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -126,12 +140,52 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="55"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="55"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="55"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="55"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="55"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -147,10 +201,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -487,10 +545,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.140625" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" customWidth="1"/>
-    <col min="3" max="3" width="28.28515625" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="28.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -558,4 +616,53 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.2265625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="9.62109375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>